--- a/student_modules_with_pdfs.xlsx
+++ b/student_modules_with_pdfs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\LLM-powered-PDF-Chatbot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\LLM-powered-PDF-Chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C24C8-750E-4359-8DC1-26C3B6F82FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ADB7AE-E1A2-4145-B1A3-220A21E8FD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$124</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="78">
   <si>
     <t>Student ID</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Enterprise Data Management</t>
   </si>
   <si>
-    <t>machine_learning.pdf</t>
-  </si>
-  <si>
     <t>data_visualisation.pdf</t>
   </si>
   <si>
@@ -251,6 +248,15 @@
   </si>
   <si>
     <t>enterprise_data_management.pdf</t>
+  </si>
+  <si>
+    <t>machine_learning_coursework2.pdf</t>
+  </si>
+  <si>
+    <t>machine_learning_coursework3.pdf</t>
+  </si>
+  <si>
+    <t>machine_learning_coursework1.pdf</t>
   </si>
 </sst>
 </file>
@@ -619,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +637,7 @@
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,7 +671,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -679,10 +685,10 @@
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,10 +702,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -713,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -730,10 +736,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -747,10 +753,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -764,44 +770,44 @@
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>8595</v>
+        <v>3939</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>8595</v>
+        <v>3939</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -815,10 +821,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -832,10 +838,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,10 +855,10 @@
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -866,44 +872,44 @@
         <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
-        <v>6461</v>
+        <v>8595</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>6461</v>
+        <v>8595</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -917,10 +923,10 @@
         <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -934,10 +940,10 @@
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,10 +957,10 @@
         <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -968,44 +974,44 @@
         <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
-        <v>5015</v>
+        <v>6461</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
-        <v>5015</v>
+        <v>6461</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,10 +1025,10 @@
         <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1036,10 +1042,10 @@
         <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,10 +1059,10 @@
         <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1070,7 +1076,7 @@
         <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -1078,36 +1084,36 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2">
-        <v>5697</v>
+        <v>5015</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2">
-        <v>5697</v>
+        <v>5015</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,10 +1127,10 @@
         <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,10 +1144,10 @@
         <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1155,10 +1161,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1172,44 +1178,44 @@
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2">
-        <v>3058</v>
+        <v>5697</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2">
-        <v>3058</v>
+        <v>5697</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,10 +1229,10 @@
         <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1240,10 +1246,10 @@
         <v>29</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1257,10 +1263,10 @@
         <v>29</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,44 +1280,44 @@
         <v>29</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="2">
-        <v>8649</v>
+        <v>3058</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="2">
-        <v>8649</v>
+        <v>3058</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1325,10 +1331,10 @@
         <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1342,10 +1348,10 @@
         <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1359,10 +1365,10 @@
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1376,44 +1382,44 @@
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" s="2">
-        <v>2111</v>
+        <v>8649</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" s="2">
-        <v>2111</v>
+        <v>8649</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1427,10 +1433,10 @@
         <v>26</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1444,10 +1450,10 @@
         <v>26</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1461,10 +1467,10 @@
         <v>26</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1478,44 +1484,44 @@
         <v>26</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="2">
-        <v>1750</v>
+        <v>2111</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="2">
-        <v>1750</v>
+        <v>2111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1529,10 +1535,10 @@
         <v>28</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1546,10 +1552,10 @@
         <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1563,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1580,44 +1586,44 @@
         <v>28</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57" s="2">
-        <v>9531</v>
+        <v>1750</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="2">
-        <v>9531</v>
+        <v>1750</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1631,10 +1637,10 @@
         <v>28</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1648,10 +1654,10 @@
         <v>28</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1665,10 +1671,10 @@
         <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1682,44 +1688,44 @@
         <v>28</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="2">
-        <v>6022</v>
+        <v>9531</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" s="2">
-        <v>6022</v>
+        <v>9531</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1733,10 +1739,10 @@
         <v>26</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1750,10 +1756,10 @@
         <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1767,10 +1773,10 @@
         <v>26</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1784,44 +1790,44 @@
         <v>26</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B69" s="2">
-        <v>9244</v>
+        <v>6022</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B70" s="2">
-        <v>9244</v>
+        <v>6022</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,10 +1841,10 @@
         <v>30</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1852,10 +1858,10 @@
         <v>30</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1869,10 +1875,10 @@
         <v>30</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1886,44 +1892,44 @@
         <v>30</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75" s="2">
-        <v>6633</v>
+        <v>9244</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B76" s="2">
-        <v>6633</v>
+        <v>9244</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1937,10 +1943,10 @@
         <v>31</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1954,10 +1960,10 @@
         <v>31</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1971,10 +1977,10 @@
         <v>31</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,41 +1994,41 @@
         <v>31</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B81" s="2">
-        <v>6521</v>
+        <v>6633</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B82" s="2">
-        <v>6521</v>
+        <v>6633</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>68</v>
@@ -2039,10 +2045,10 @@
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2056,10 +2062,10 @@
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2073,7 +2079,7 @@
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>64</v>
@@ -2090,44 +2096,44 @@
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B87" s="2">
-        <v>1276</v>
+        <v>6521</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B88" s="2">
-        <v>1276</v>
+        <v>6521</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2141,10 +2147,10 @@
         <v>29</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2158,10 +2164,10 @@
         <v>29</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,10 +2181,10 @@
         <v>29</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2192,18 +2198,18 @@
         <v>29</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B93" s="2">
-        <v>6857</v>
+        <v>1276</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>29</v>
@@ -2212,24 +2218,24 @@
         <v>48</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B94" s="2">
-        <v>6857</v>
+        <v>1276</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,10 +2249,10 @@
         <v>29</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2260,10 +2266,10 @@
         <v>29</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2277,10 +2283,10 @@
         <v>29</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2294,44 +2300,44 @@
         <v>29</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B99" s="2">
-        <v>5668</v>
+        <v>6857</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B100" s="2">
-        <v>5668</v>
+        <v>6857</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2345,10 +2351,10 @@
         <v>28</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2362,10 +2368,10 @@
         <v>28</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2379,10 +2385,10 @@
         <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2396,44 +2402,44 @@
         <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B105" s="2">
-        <v>7333</v>
+        <v>5668</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B106" s="2">
-        <v>7333</v>
+        <v>5668</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2447,7 +2453,7 @@
         <v>31</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>70</v>
@@ -2464,10 +2470,10 @@
         <v>31</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2481,10 +2487,10 @@
         <v>31</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2498,44 +2504,44 @@
         <v>31</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B111" s="2">
-        <v>6415</v>
+        <v>7333</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B112" s="2">
-        <v>6415</v>
+        <v>7333</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2549,7 +2555,7 @@
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>69</v>
@@ -2566,10 +2572,10 @@
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2583,10 +2589,10 @@
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,44 +2606,44 @@
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B117" s="2">
-        <v>2245</v>
+        <v>6415</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B118" s="2">
-        <v>2245</v>
+        <v>6415</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,10 +2657,10 @@
         <v>30</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2668,10 +2674,10 @@
         <v>30</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,10 +2691,10 @@
         <v>30</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2702,14 +2708,48 @@
         <v>30</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2245</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2245</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>74</v>
+      <c r="E124" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E122" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:E124" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>